--- a/public/files/cabinetTable.xlsx
+++ b/public/files/cabinetTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carbon\Desktop\work\websites\fridgit\frontend\public\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C5946F-B4C1-4360-A62E-70296979EB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F841B01F-6A86-4D0C-9115-FAC1A6A14704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cabinetTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Is New</t>
   </si>
@@ -48,7 +48,7 @@
     <t>UDD 300L SCEBN (Hor-3B)</t>
   </si>
   <si>
-    <t>ddd</t>
+    <t>walls</t>
   </si>
 </sst>
 </file>
@@ -902,7 +902,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,16 +929,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>22323</v>
+        <v>9999</v>
       </c>
       <c r="B2">
-        <v>32323</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
-        <v>322</v>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -946,7 +946,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>88888</v>
+        <v>7777</v>
       </c>
       <c r="B3">
         <v>222</v>
@@ -958,7 +958,7 @@
         <v>7</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
